--- a/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarang.batra\eclipse-workspace\Keyword-Driven-Web-UI-Framework-master\Keyword-Driven-Web-UI-Framework-master\src\main\java\com\qa\hs\keyword\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarang.batra\github\Keyword-Driven-Web-UI-Framework-master\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="PMC_PORTAL" sheetId="1" r:id="rId2"/>
+    <sheet name="AMAZON" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>TD_ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>TD_0001</t>
   </si>
   <si>
-    <t>Valid Data</t>
-  </si>
-  <si>
     <t>CLICK</t>
   </si>
   <si>
@@ -102,56 +99,89 @@
     <t>PARTIALLINKTEXT</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>LocatorAction</t>
   </si>
   <si>
-    <t>LOGIN_BTN</t>
-  </si>
-  <si>
     <t>Enter_Username</t>
   </si>
   <si>
     <t>Enter_Password</t>
   </si>
   <si>
-    <t>tibco123</t>
-  </si>
-  <si>
     <t>Login_Button</t>
   </si>
   <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>PASS_WORD</t>
-  </si>
-  <si>
-    <t>Select_Current_Account</t>
-  </si>
-  <si>
-    <t>ACC_SEL_OBJ</t>
-  </si>
-  <si>
-    <t>ACCOUNT_SEL||ACC_SEL_OBJ</t>
-  </si>
-  <si>
-    <t>SETPARAM</t>
-  </si>
-  <si>
-    <t>Account_Object</t>
-  </si>
-  <si>
-    <t>Current Account</t>
+    <t>Sign_In_Click</t>
+  </si>
+  <si>
+    <t>SIGNIN_BTN</t>
+  </si>
+  <si>
+    <t>USERNAME_INPUT</t>
+  </si>
+  <si>
+    <t>batrasarang1@gmail.com</t>
+  </si>
+  <si>
+    <t>Continue_Button</t>
+  </si>
+  <si>
+    <t>CNTUNE_BTN</t>
+  </si>
+  <si>
+    <t>PASSWORD_INPUT</t>
+  </si>
+  <si>
+    <t>Sb@240694</t>
+  </si>
+  <si>
+    <t>LOGIN_BTNN</t>
+  </si>
+  <si>
+    <t>Pincode_Change_Option</t>
+  </si>
+  <si>
+    <t>TD_0002</t>
+  </si>
+  <si>
+    <t>Login flow with correct details</t>
+  </si>
+  <si>
+    <t>Pincode change flow</t>
+  </si>
+  <si>
+    <t>Enter_Pincode</t>
+  </si>
+  <si>
+    <t>400001</t>
+  </si>
+  <si>
+    <t>Pincode_Apply_Button</t>
+  </si>
+  <si>
+    <t>Change_Link</t>
+  </si>
+  <si>
+    <t>PC_CHNGE_LINK</t>
+  </si>
+  <si>
+    <t>PC_INPUT</t>
+  </si>
+  <si>
+    <t>PC_APLY_BTN</t>
+  </si>
+  <si>
+    <t>PC_CHG_OPT</t>
+  </si>
+  <si>
+    <t>#SKIP#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +193,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,10 +256,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,11 +292,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,57 +602,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9"/>
     </row>
@@ -612,29 +664,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="23.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,346 +699,471 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+      <c r="L6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="3"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="AMAZON" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>TD_ID</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>#SKIP#</t>
+  </si>
+  <si>
+    <t>TD_0003</t>
+  </si>
+  <si>
+    <t>Count Number of Banners</t>
+  </si>
+  <si>
+    <t>COUNTITEMS</t>
+  </si>
+  <si>
+    <t>Count_Banners</t>
+  </si>
+  <si>
+    <t>BAN_COUNT</t>
   </si>
 </sst>
 </file>
@@ -664,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,14 +697,14 @@
     <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="23.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="14" width="23.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -729,14 +744,17 @@
         <v>43</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4" t="s">
@@ -769,11 +787,14 @@
       <c r="M2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
@@ -806,11 +827,14 @@
       <c r="M3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
@@ -843,10 +867,13 @@
       <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,10 +907,13 @@
       <c r="M5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -917,27 +947,57 @@
         <v>42</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -951,10 +1011,11 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
@@ -968,10 +1029,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -985,10 +1047,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -1002,10 +1065,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -1019,10 +1083,11 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -1036,10 +1101,11 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -1053,10 +1119,11 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -1070,10 +1137,11 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -1087,10 +1155,11 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -1104,10 +1173,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -1121,10 +1191,11 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="3"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -1138,10 +1209,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -1155,8 +1227,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarang.batra\github\Keyword-Driven-Web-UI-Framework-master\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FB7F8F-7BF9-4924-9A51-5B5D67470859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="AMAZON" sheetId="1" r:id="rId2"/>
+    <sheet name="PMC_PORTAL" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>TD_ID</t>
   </si>
@@ -99,6 +100,9 @@
     <t>PARTIALLINKTEXT</t>
   </si>
   <si>
+    <t>c1</t>
+  </si>
+  <si>
     <t>LocatorAction</t>
   </si>
   <si>
@@ -108,95 +112,59 @@
     <t>Enter_Password</t>
   </si>
   <si>
+    <t>tibco123</t>
+  </si>
+  <si>
     <t>Login_Button</t>
   </si>
   <si>
-    <t>Sign_In_Click</t>
-  </si>
-  <si>
-    <t>SIGNIN_BTN</t>
-  </si>
-  <si>
-    <t>USERNAME_INPUT</t>
-  </si>
-  <si>
-    <t>batrasarang1@gmail.com</t>
-  </si>
-  <si>
-    <t>Continue_Button</t>
-  </si>
-  <si>
-    <t>CNTUNE_BTN</t>
-  </si>
-  <si>
-    <t>PASSWORD_INPUT</t>
-  </si>
-  <si>
-    <t>Sb@240694</t>
-  </si>
-  <si>
-    <t>LOGIN_BTNN</t>
-  </si>
-  <si>
-    <t>Pincode_Change_Option</t>
+    <t>PMC_UNAME</t>
+  </si>
+  <si>
+    <t>PMC_PWORD</t>
+  </si>
+  <si>
+    <t>PMC_LOGINBTN</t>
   </si>
   <si>
     <t>TD_0002</t>
   </si>
   <si>
-    <t>Login flow with correct details</t>
-  </si>
-  <si>
-    <t>Pincode change flow</t>
-  </si>
-  <si>
-    <t>Enter_Pincode</t>
-  </si>
-  <si>
-    <t>400001</t>
-  </si>
-  <si>
-    <t>Pincode_Apply_Button</t>
-  </si>
-  <si>
-    <t>Change_Link</t>
-  </si>
-  <si>
-    <t>PC_CHNGE_LINK</t>
-  </si>
-  <si>
-    <t>PC_INPUT</t>
-  </si>
-  <si>
-    <t>PC_APLY_BTN</t>
-  </si>
-  <si>
-    <t>PC_CHG_OPT</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Select_CurrAcc</t>
   </si>
   <si>
     <t>#SKIP#</t>
   </si>
   <si>
-    <t>TD_0003</t>
-  </si>
-  <si>
-    <t>Count Number of Banners</t>
-  </si>
-  <si>
-    <t>COUNTITEMS</t>
-  </si>
-  <si>
-    <t>Count_Banners</t>
-  </si>
-  <si>
-    <t>BAN_COUNT</t>
+    <t>C1 - Saving Account</t>
+  </si>
+  <si>
+    <t>C1 - Current Account</t>
+  </si>
+  <si>
+    <t>SETPARAM</t>
+  </si>
+  <si>
+    <t>PMC_ACCOUNT</t>
+  </si>
+  <si>
+    <t>PMC_ACCOUNT||PMC_CURRACC</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>Set_Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +176,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,11 +231,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,24 +266,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -678,33 +624,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="23.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -717,168 +661,106 @@
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>33</v>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -886,357 +768,230 @@
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
-        <v>35</v>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/TESTDATA_BOOK.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarang.batra\github\Keyword-Driven-Web-UI-Framework-master\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FB7F8F-7BF9-4924-9A51-5B5D67470859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C7CD8-6B1F-4339-AB05-432EAC830861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>TD_ID</t>
   </si>
@@ -133,31 +133,28 @@
     <t>N</t>
   </si>
   <si>
-    <t>Select_CurrAcc</t>
-  </si>
-  <si>
-    <t>#SKIP#</t>
-  </si>
-  <si>
     <t>C1 - Saving Account</t>
   </si>
   <si>
     <t>C1 - Current Account</t>
   </si>
   <si>
-    <t>SETPARAM</t>
-  </si>
-  <si>
-    <t>PMC_ACCOUNT</t>
-  </si>
-  <si>
-    <t>PMC_ACCOUNT||PMC_CURRACC</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
     <t>Set_Account</t>
+  </si>
+  <si>
+    <t>PMC_SAVACC</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>MOUSEACTION</t>
+  </si>
+  <si>
+    <t>PMC_TPANQ</t>
+  </si>
+  <si>
+    <t>LINK</t>
   </si>
 </sst>
 </file>
@@ -549,6 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -625,10 +623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,13 +640,13 @@
     <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -670,19 +669,20 @@
         <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -699,15 +699,16 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -724,15 +725,16 @@
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -748,19 +750,22 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -775,19 +780,18 @@
         <v>28</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
@@ -803,13 +807,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
@@ -819,10 +822,11 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -832,10 +836,11 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
@@ -845,10 +850,11 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -858,10 +864,11 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -871,10 +878,11 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -884,10 +892,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -897,10 +906,11 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -910,10 +920,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -923,10 +934,11 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -936,10 +948,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -949,10 +962,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -962,10 +976,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -975,10 +990,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -988,8 +1004,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
